--- a/models/types2and7/Best_VotingEnsemble/ConfusionMatrix.xlsx
+++ b/models/types2and7/Best_VotingEnsemble/ConfusionMatrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\types2and7\Best_ExtremeRandomTrees\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\types2and7\Best_VotingEnsemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA13369-07CE-4BB2-B3B9-64EA5CF511CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ACAB27-05F1-4B90-8A52-05796C535A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="1845" windowWidth="23400" windowHeight="11385" xr2:uid="{DA2684CA-ABA8-4BF7-A6C4-55C66346F356}"/>
+    <workbookView xWindow="14475" yWindow="3600" windowWidth="14325" windowHeight="8010" xr2:uid="{DA2684CA-ABA8-4BF7-A6C4-55C66346F356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,16 @@
     <t>True Label</t>
   </si>
   <si>
-    <t>38 (0.95)</t>
-  </si>
-  <si>
-    <t>2 (0.05)</t>
-  </si>
-  <si>
-    <t>6 (0.22)</t>
-  </si>
-  <si>
-    <t>21 (0.78)</t>
+    <t>20 (0.9524)</t>
+  </si>
+  <si>
+    <t>1 (0.0476)</t>
+  </si>
+  <si>
+    <t>4 (0.2857)</t>
+  </si>
+  <si>
+    <t>10 (0.7143)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
